--- a/数据整理/stocks/A股/创业板/300133-华策影视.xlsx
+++ b/数据整理/stocks/A股/创业板/300133-华策影视.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>60.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.17</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.41</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0467</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001663</t>
+          <t>006879</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中银互联网+股票</t>
+          <t>华安智能生活混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>85.31</t>
+          <t>32.22</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0890</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002583</t>
+          <t>007460</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泰信行业精选灵活配置混合C</t>
+          <t>华安成长创新混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.47</t>
+          <t>8.40</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2831</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>93.47</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>4.42</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>7</v>
       </c>
     </row>
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006879</t>
+          <t>001663</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华安智能生活混合</t>
+          <t>中银互联网+股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.51</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>10</v>
       </c>
     </row>
@@ -632,26 +692,34 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007460</t>
+          <t>002583</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华安成长创新混合</t>
+          <t>泰信行业精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.06</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -665,7 +733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +754,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -716,15 +794,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.09</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.37</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -742,17 +830,21 @@
           <t>泰信行业精选灵活配置混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>94.09</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>5.37</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300133-华策影视.xlsx
+++ b/数据整理/stocks/A股/创业板/300133-华策影视.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -830,7 +831,6 @@
           <t>泰信行业精选灵活配置混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>94.09</t>
@@ -846,6 +846,250 @@
       </c>
       <c r="H3" t="n">
         <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>63.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0193</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>59.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7065</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159855</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300133-华策影视.xlsx
+++ b/数据整理/stocks/A股/创业板/300133-华策影视.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1095,4 +1096,362 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发价值领先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0494</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1367</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1251</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7509</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002270</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东吴安盈量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>52.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1410</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159855</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300133-华策影视.xlsx
+++ b/数据整理/stocks/A股/创业板/300133-华策影视.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1454,4 +1455,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300133-华策影视.xlsx
+++ b/数据整理/stocks/A股/创业板/300133-华策影视.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1463,7 +1464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1474,17 +1475,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1494,14 +1515,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.31</v>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2996</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1510,14 +1553,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.82</v>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>69.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2746</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1526,14 +1591,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.03</v>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8696</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1542,13 +1629,567 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发价值领先混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5464</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001628</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商体育文化休闲股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2263</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002270</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东吴安盈量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>57.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1632</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>516620</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1303</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1182</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009907</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>71.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011824</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159855</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>96.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009908</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>71.65</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011825</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.86</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>3.48</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300133-华策影视.xlsx
+++ b/数据整理/stocks/A股/创业板/300133-华策影视.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2088,7 +2089,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2099,17 +2100,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2119,14 +2140,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.86</v>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发价值领先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>61.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6459</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2135,14 +2178,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.31</v>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9572</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2151,14 +2216,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.82</v>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>69.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7378</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2167,14 +2254,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.03</v>
+          <t>002270</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东吴安盈量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>46.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1226</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -2183,13 +2292,279 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159855</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>516620</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.86</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>3.48</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300133-华策影视.xlsx
+++ b/数据整理/stocks/A股/创业板/300133-华策影视.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2447,7 +2448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2458,17 +2459,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2478,14 +2499,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.55</v>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0107</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2494,14 +2537,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.86</v>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9786</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2510,14 +2575,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.31</v>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7619</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2526,14 +2613,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.82</v>
+          <t>012449</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3614</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -2542,14 +2651,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.03</v>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -2558,13 +2689,259 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>159855</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>516620</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.86</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.31</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>3.48</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300133-华策影视.xlsx
+++ b/数据整理/stocks/A股/创业板/300133-华策影视.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>3.22</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>4.55</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>4.86</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>6.31</v>
+        <v>4.86</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>1.82</v>
+        <v>6.31</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>3.48</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,36 +673,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005233</t>
+          <t>270001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发睿毅领先混合</t>
+          <t>广发聚富混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>38.43</t>
+          <t>20.35</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>74.60</t>
+          <t>75.03</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0107</t>
+          <t>0.9442</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -694,32 +711,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>270001</t>
+          <t>001763</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发聚富混合</t>
+          <t>广发多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.65</t>
+          <t>22.52</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>74.89</t>
+          <t>90.50</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9786</t>
+          <t>0.7927</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -732,36 +749,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001763</t>
+          <t>000968</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发多策略灵活配置混合</t>
+          <t>广发中证养老产业指数A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>22.81</t>
+          <t>10.84</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>76.47</t>
+          <t>93.98</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.7619</t>
+          <t>0.1518</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -770,36 +787,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>012449</t>
+          <t>002270</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发睿毅领先混合C</t>
+          <t>东吴安盈量化灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>13.74</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>74.60</t>
+          <t>52.91</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3614</t>
+          <t>0.1133</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -818,26 +835,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>91.96</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.30</t>
+          <t>6.69</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0456</t>
+          <t>0.0502</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -846,36 +863,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>159855</t>
+          <t>516620</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>银华中证影视主题ETF</t>
+          <t>国泰中证影视主题ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>96.56</t>
+          <t>99.07</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>5.09</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0456</t>
+          <t>0.0478</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -884,36 +901,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>516620</t>
+          <t>159855</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国泰中证影视主题ETF</t>
+          <t>银华中证影视主题ETF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>97.37</t>
+          <t>96.84</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0181</t>
+          <t>0.0415</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -922,36 +939,150 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002583</t>
+          <t>002982</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>泰信行业精选灵活配置混合C</t>
+          <t>广发中证养老产业指数C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>93.98</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.30</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0011</t>
+          <t>0.0129</t>
         </is>
       </c>
       <c r="H9" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>516560</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华宝养老ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>015154</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东吴安盈量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>52.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1016,36 +1147,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008099</t>
+          <t>005233</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发价值领先混合</t>
+          <t>广发睿毅领先混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>61.82</t>
+          <t>38.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>83.88</t>
+          <t>74.60</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.6459</t>
+          <t>1.0107</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1064,26 +1195,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>19.90</t>
+          <t>21.65</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>73.54</t>
+          <t>74.89</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9572</t>
+          <t>0.9786</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1102,26 +1233,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>20.27</t>
+          <t>22.81</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>69.36</t>
+          <t>76.47</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.7378</t>
+          <t>0.7619</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1130,32 +1261,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002270</t>
+          <t>012449</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>东吴安盈量化灵活配置混合</t>
+          <t>广发睿毅领先混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.24</t>
+          <t>13.74</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>46.02</t>
+          <t>74.60</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1226</t>
+          <t>0.3614</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1178,26 +1309,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.62</t>
+          <t>93.01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>5.30</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0416</t>
+          <t>0.0456</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1216,22 +1347,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>97.27</t>
+          <t>96.56</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0371</t>
+          <t>0.0456</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1254,22 +1385,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>96.08</t>
+          <t>97.37</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0126</t>
+          <t>0.0181</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1292,24 +1423,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>92.62</t>
+          <t>93.01</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.48</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1318,6 +1451,364 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发价值领先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>61.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6459</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9572</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>69.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7378</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002270</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东吴安盈量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>46.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1226</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159855</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>516620</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1941,7 +2432,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2299,7 +2790,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2543,7 +3034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2668,7 +3159,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300133-华策影视.xlsx
+++ b/数据整理/stocks/A股/创业板/300133-华策影视.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>2.17</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>3.22</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>4.55</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>4.86</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>6.31</v>
+        <v>4.86</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>1.82</v>
+        <v>6.31</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>0.03</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>6</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>3.48</v>
       </c>
     </row>
@@ -616,7 +633,535 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>60.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0467</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006879</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安智能生活混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0890</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007460</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安成长创新混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2831</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001663</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银互联网+股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0296</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005460</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>39.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005459</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>39.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1083,366 +1628,6 @@
       </c>
       <c r="H12" t="n">
         <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005233</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发睿毅领先混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>38.43</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>74.60</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.0107</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>270001</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发聚富混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>21.65</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>74.89</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.9786</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001763</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>22.81</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>76.47</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.7619</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>012449</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发睿毅领先混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>13.74</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>74.60</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3614</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>290012</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>泰信行业精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.01</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0456</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>159855</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>银华中证影视主题ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>96.56</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0456</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>516620</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国泰中证影视主题ETF</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>97.37</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0181</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>002583</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>泰信行业精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.01</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1507,36 +1692,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008099</t>
+          <t>005233</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发价值领先混合</t>
+          <t>广发睿毅领先混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>61.82</t>
+          <t>38.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>83.88</t>
+          <t>74.60</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.6459</t>
+          <t>1.0107</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1555,26 +1740,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>19.90</t>
+          <t>21.65</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>73.54</t>
+          <t>74.89</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9572</t>
+          <t>0.9786</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1593,26 +1778,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>20.27</t>
+          <t>22.81</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>69.36</t>
+          <t>76.47</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.7378</t>
+          <t>0.7619</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1621,32 +1806,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002270</t>
+          <t>012449</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>东吴安盈量化灵活配置混合</t>
+          <t>广发睿毅领先混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.24</t>
+          <t>13.74</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>46.02</t>
+          <t>74.60</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1226</t>
+          <t>0.3614</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1669,26 +1854,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.62</t>
+          <t>93.01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>5.30</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0416</t>
+          <t>0.0456</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1707,22 +1892,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>97.27</t>
+          <t>96.56</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0371</t>
+          <t>0.0456</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1745,22 +1930,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>96.08</t>
+          <t>97.37</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0126</t>
+          <t>0.0181</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1783,24 +1968,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>92.62</t>
+          <t>93.01</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.48</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1809,6 +1996,364 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发价值领先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>61.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6459</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9572</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>69.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7378</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002270</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东吴安盈量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>46.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1226</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159855</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>516620</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2432,7 +2977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2790,7 +3335,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3034,7 +3579,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3157,286 +3702,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001071</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华安媒体互联网混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>60.02</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.17</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.0467</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006879</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华安智能生活混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>32.22</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.51</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.0890</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007460</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华安成长创新混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>8.40</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.06</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2831</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>290012</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>泰信行业精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0376</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001663</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中银互联网+股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>85.31</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0221</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002583</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>泰信行业精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>